--- a/SSH Rural Access to Electricity 2020.xlsx
+++ b/SSH Rural Access to Electricity 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ANITA\GITHUB\GATOTKACA\GATOTKACA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC306552-18C5-42F8-8A1C-A0DB82C854E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F080B432-02D0-49D3-8747-6AE5BE9CD14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" xr2:uid="{32318A95-E809-44D1-BCEE-4223C43B739D}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>Country Name</t>
   </si>
   <si>
-    <t>Country Code</t>
-  </si>
-  <si>
     <t>Angola</t>
   </si>
   <si>
@@ -333,6 +330,9 @@
   </si>
   <si>
     <t>ZWE</t>
+  </si>
+  <si>
+    <t>CountryCode</t>
   </si>
 </sst>
 </file>
@@ -694,7 +694,7 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1">
         <v>2020</v>
@@ -717,10 +717,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
         <v>76</v>
-      </c>
-      <c r="B2" t="s">
-        <v>77</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -728,10 +728,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
         <v>60</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
       </c>
       <c r="C3">
         <v>99.835762023925795</v>
@@ -739,10 +739,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
       </c>
       <c r="C4">
         <v>93.513702392578097</v>
@@ -750,10 +750,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
       </c>
       <c r="C5">
         <v>81.336402893066406</v>
@@ -761,10 +761,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
         <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
       </c>
       <c r="C6">
         <v>75.756195068359403</v>
@@ -772,10 +772,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
         <v>82</v>
-      </c>
-      <c r="B7" t="s">
-        <v>83</v>
       </c>
       <c r="C7">
         <v>75.264854431152301</v>
@@ -783,10 +783,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
         <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
       </c>
       <c r="C8">
         <v>73.991317749023395</v>
@@ -794,10 +794,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
         <v>72</v>
-      </c>
-      <c r="B9" t="s">
-        <v>73</v>
       </c>
       <c r="C9">
         <v>71.077507019042997</v>
@@ -805,10 +805,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
         <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
       </c>
       <c r="C10">
         <v>62.671340942382798</v>
@@ -816,10 +816,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
         <v>74</v>
-      </c>
-      <c r="B11" t="s">
-        <v>75</v>
       </c>
       <c r="C11">
         <v>47.357532501220703</v>
@@ -827,10 +827,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
         <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
       </c>
       <c r="C12">
         <v>43.1361083984375</v>
@@ -838,10 +838,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" t="s">
         <v>86</v>
-      </c>
-      <c r="B13" t="s">
-        <v>87</v>
       </c>
       <c r="C13">
         <v>41.163734436035199</v>
@@ -849,10 +849,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
         <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
       </c>
       <c r="C14">
         <v>39.414909362792997</v>
@@ -860,10 +860,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
         <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
       </c>
       <c r="C15">
         <v>39.024684906005902</v>
@@ -871,10 +871,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" t="s">
         <v>70</v>
-      </c>
-      <c r="B16" t="s">
-        <v>71</v>
       </c>
       <c r="C16">
         <v>38.197307586669901</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" t="s">
         <v>96</v>
-      </c>
-      <c r="B17" t="s">
-        <v>97</v>
       </c>
       <c r="C17">
         <v>37.060249328613303</v>
@@ -893,10 +893,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
         <v>64</v>
-      </c>
-      <c r="B18" t="s">
-        <v>65</v>
       </c>
       <c r="C18">
         <v>36.288028717041001</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
         <v>48</v>
-      </c>
-      <c r="B19" t="s">
-        <v>49</v>
       </c>
       <c r="C19">
         <v>34.930088043212898</v>
@@ -915,10 +915,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" t="s">
         <v>92</v>
-      </c>
-      <c r="B20" t="s">
-        <v>93</v>
       </c>
       <c r="C20">
         <v>32.831607818603501</v>
@@ -926,10 +926,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s">
         <v>80</v>
-      </c>
-      <c r="B21" t="s">
-        <v>81</v>
       </c>
       <c r="C21">
         <v>32.263469696044901</v>
@@ -937,10 +937,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
         <v>38</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
       </c>
       <c r="C22">
         <v>31.562685012817401</v>
@@ -948,10 +948,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
         <v>36</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
       </c>
       <c r="C23">
         <v>27.763301849365199</v>
@@ -959,10 +959,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
         <v>6</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
       </c>
       <c r="C24">
         <v>26.382898330688501</v>
@@ -970,10 +970,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
         <v>14</v>
-      </c>
-      <c r="B25" t="s">
-        <v>15</v>
       </c>
       <c r="C25">
         <v>24.975612640380898</v>
@@ -981,10 +981,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
         <v>68</v>
-      </c>
-      <c r="B26" t="s">
-        <v>69</v>
       </c>
       <c r="C26">
         <v>24.576908111572301</v>
@@ -992,10 +992,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" t="s">
         <v>90</v>
-      </c>
-      <c r="B27" t="s">
-        <v>91</v>
       </c>
       <c r="C27">
         <v>23.957883834838899</v>
@@ -1003,10 +1003,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s">
         <v>88</v>
-      </c>
-      <c r="B28" t="s">
-        <v>89</v>
       </c>
       <c r="C28">
         <v>21.952846527099599</v>
@@ -1014,10 +1014,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" t="s">
         <v>42</v>
-      </c>
-      <c r="B29" t="s">
-        <v>43</v>
       </c>
       <c r="C29">
         <v>19.307596206665</v>
@@ -1025,10 +1025,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
         <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>5</v>
       </c>
       <c r="C30">
         <v>18.196510314941399</v>
@@ -1036,10 +1036,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
         <v>56</v>
-      </c>
-      <c r="B31" t="s">
-        <v>57</v>
       </c>
       <c r="C31">
         <v>16.4873046875</v>
@@ -1047,10 +1047,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
         <v>44</v>
-      </c>
-      <c r="B32" t="s">
-        <v>45</v>
       </c>
       <c r="C32">
         <v>15.1680898666382</v>
@@ -1058,10 +1058,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
         <v>24</v>
-      </c>
-      <c r="B33" t="s">
-        <v>25</v>
       </c>
       <c r="C33">
         <v>14.754021644592299</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" t="s">
         <v>94</v>
-      </c>
-      <c r="B34" t="s">
-        <v>95</v>
       </c>
       <c r="C34">
         <v>14.010825157165501</v>
@@ -1080,10 +1080,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" t="s">
         <v>66</v>
-      </c>
-      <c r="B35" t="s">
-        <v>67</v>
       </c>
       <c r="C35">
         <v>13.4411478042603</v>
@@ -1091,10 +1091,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" t="s">
         <v>52</v>
-      </c>
-      <c r="B36" t="s">
-        <v>53</v>
       </c>
       <c r="C36">
         <v>10.898485183715801</v>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
         <v>50</v>
-      </c>
-      <c r="B37" t="s">
-        <v>51</v>
       </c>
       <c r="C37">
         <v>8.3587713241577095</v>
@@ -1113,10 +1113,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
         <v>2</v>
-      </c>
-      <c r="B38" t="s">
-        <v>3</v>
       </c>
       <c r="C38">
         <v>7.3334450721740696</v>
@@ -1124,10 +1124,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" t="s">
         <v>54</v>
-      </c>
-      <c r="B39" t="s">
-        <v>55</v>
       </c>
       <c r="C39">
         <v>6.6118803024292001</v>
@@ -1135,10 +1135,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
         <v>84</v>
-      </c>
-      <c r="B40" t="s">
-        <v>85</v>
       </c>
       <c r="C40">
         <v>5.5638475418090803</v>
@@ -1146,10 +1146,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
         <v>78</v>
-      </c>
-      <c r="B41" t="s">
-        <v>79</v>
       </c>
       <c r="C41">
         <v>4.7740387916564897</v>
@@ -1157,10 +1157,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
         <v>8</v>
-      </c>
-      <c r="B42" t="s">
-        <v>9</v>
       </c>
       <c r="C42">
         <v>4.7498755455017099</v>
@@ -1168,10 +1168,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" t="s">
         <v>62</v>
-      </c>
-      <c r="B43" t="s">
-        <v>63</v>
       </c>
       <c r="C43">
         <v>4.4686908721923801</v>
@@ -1179,10 +1179,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
         <v>10</v>
-      </c>
-      <c r="B44" t="s">
-        <v>11</v>
       </c>
       <c r="C44">
         <v>3.4841194152832</v>
@@ -1190,10 +1190,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" t="s">
         <v>58</v>
-      </c>
-      <c r="B45" t="s">
-        <v>59</v>
       </c>
       <c r="C45">
         <v>2.5872542858123802</v>
@@ -1201,10 +1201,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
         <v>16</v>
-      </c>
-      <c r="B46" t="s">
-        <v>17</v>
       </c>
       <c r="C46">
         <v>2.2528667449951199</v>
@@ -1212,10 +1212,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" t="s">
         <v>18</v>
-      </c>
-      <c r="B47" t="s">
-        <v>19</v>
       </c>
       <c r="C47">
         <v>1.99430644512177</v>
@@ -1223,10 +1223,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" t="s">
         <v>22</v>
-      </c>
-      <c r="B48" t="s">
-        <v>23</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1234,10 +1234,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" t="s">
         <v>28</v>
-      </c>
-      <c r="B49" t="s">
-        <v>29</v>
       </c>
       <c r="C49">
         <v>0.93263000249862704</v>

--- a/SSH Rural Access to Electricity 2020.xlsx
+++ b/SSH Rural Access to Electricity 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ANITA\GITHUB\GATOTKACA\GATOTKACA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F080B432-02D0-49D3-8747-6AE5BE9CD14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F20F022-DD23-4BC1-B4C2-80703672A936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" xr2:uid="{32318A95-E809-44D1-BCEE-4223C43B739D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>Country Name</t>
   </si>
@@ -333,6 +333,12 @@
   </si>
   <si>
     <t>CountryCode</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Lon</t>
   </si>
 </sst>
 </file>
@@ -691,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18E90A7-4925-4D1B-9225-2D6E62B5F90F}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -704,7 +710,7 @@
     <col min="3" max="3" width="11.6796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -714,8 +720,14 @@
       <c r="C1" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="D1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -726,7 +738,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -737,7 +749,7 @@
         <v>99.835762023925795</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -748,7 +760,7 @@
         <v>93.513702392578097</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -759,7 +771,7 @@
         <v>81.336402893066406</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -770,7 +782,7 @@
         <v>75.756195068359403</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -781,7 +793,7 @@
         <v>75.264854431152301</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -792,7 +804,7 @@
         <v>73.991317749023395</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -803,7 +815,7 @@
         <v>71.077507019042997</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -814,7 +826,7 @@
         <v>62.671340942382798</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -825,7 +837,7 @@
         <v>47.357532501220703</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -836,7 +848,7 @@
         <v>43.1361083984375</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>85</v>
       </c>
@@ -847,7 +859,7 @@
         <v>41.163734436035199</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -858,7 +870,7 @@
         <v>39.414909362792997</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -869,7 +881,7 @@
         <v>39.024684906005902</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>69</v>
       </c>

--- a/SSH Rural Access to Electricity 2020.xlsx
+++ b/SSH Rural Access to Electricity 2020.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ANITA\GITHUB\GATOTKACA\GATOTKACA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F20F022-DD23-4BC1-B4C2-80703672A936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F86E43-CD15-493D-9AB0-AF550B1A11EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" xr2:uid="{32318A95-E809-44D1-BCEE-4223C43B739D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$49</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="118">
   <si>
     <t>Country Name</t>
   </si>
@@ -74,9 +75,6 @@
     <t>BDI</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
-  </si>
-  <si>
     <t>CPV</t>
   </si>
   <si>
@@ -104,21 +102,12 @@
     <t>COM</t>
   </si>
   <si>
-    <t>Congo, Dem. Rep.</t>
-  </si>
-  <si>
     <t>COD</t>
   </si>
   <si>
-    <t>Congo, Rep.</t>
-  </si>
-  <si>
     <t>COG</t>
   </si>
   <si>
-    <t>Cote d'Ivoire</t>
-  </si>
-  <si>
     <t>CIV</t>
   </si>
   <si>
@@ -152,9 +141,6 @@
     <t>GAB</t>
   </si>
   <si>
-    <t>Gambia, The</t>
-  </si>
-  <si>
     <t>GMB</t>
   </si>
   <si>
@@ -339,14 +325,91 @@
   </si>
   <si>
     <t>Lon</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Hala'ib Triangle</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Ilemi Triangle</t>
+  </si>
+  <si>
+    <t>Ma'tan al-Sarra</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Glorioso Islands</t>
+  </si>
+  <si>
+    <t>Abyei</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Libyan Arab Jamahiriya</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -368,7 +431,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -376,13 +439,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,15 +780,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18E90A7-4925-4D1B-9225-2D6E62B5F90F}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.75">
@@ -715,261 +797,437 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1">
         <v>2020</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
+      <c r="D2">
+        <f>VLOOKUP(A2,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>-6.3543699800000004</v>
+      </c>
+      <c r="E2">
+        <f>VLOOKUP(A2,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>52.229899400000001</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C3">
         <v>99.835762023925795</v>
       </c>
+      <c r="D3">
+        <f>VLOOKUP(A3,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>-20.251869020000001</v>
+      </c>
+      <c r="E3">
+        <f>VLOOKUP(A3,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>57.870737349999999</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
       </c>
       <c r="C4">
         <v>93.513702392578097</v>
       </c>
+      <c r="D4">
+        <f>VLOOKUP(A4,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>15.978973269999999</v>
+      </c>
+      <c r="E4">
+        <f>VLOOKUP(A4,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>-23.967784569999999</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
       </c>
       <c r="C5">
         <v>81.336402893066406</v>
       </c>
+      <c r="D5">
+        <f>VLOOKUP(A5,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>-11.892754679999999</v>
+      </c>
+      <c r="E5">
+        <f>VLOOKUP(A5,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>43.675919659999998</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>75.756195068359403</v>
       </c>
+      <c r="D6">
+        <f>VLOOKUP(A6,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>-26.562642189999998</v>
+      </c>
+      <c r="E6">
+        <f>VLOOKUP(A6,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>31.497528460000002</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C7">
         <v>75.264854431152301</v>
       </c>
+      <c r="D7">
+        <f>VLOOKUP(A7,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>-28.99320329</v>
+      </c>
+      <c r="E7">
+        <f>VLOOKUP(A7,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>25.088778009999999</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>73.991317749023395</v>
       </c>
+      <c r="D8">
+        <f>VLOOKUP(A8,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>7.9598484100000002</v>
+      </c>
+      <c r="E8">
+        <f>VLOOKUP(A8,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>-1.2073013800000001</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C9">
         <v>71.077507019042997</v>
       </c>
+      <c r="D9">
+        <f>VLOOKUP(A9,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>0.45697852999999999</v>
+      </c>
+      <c r="E9">
+        <f>VLOOKUP(A9,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>6.7365857599999996</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>62.671340942382798</v>
       </c>
+      <c r="D10">
+        <f>VLOOKUP(A10,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>0.52956186000000005</v>
+      </c>
+      <c r="E10">
+        <f>VLOOKUP(A10,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>37.858020959999998</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C11">
         <v>47.357532501220703</v>
       </c>
+      <c r="D11">
+        <f>VLOOKUP(A11,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>14.36696575</v>
+      </c>
+      <c r="E11">
+        <f>VLOOKUP(A11,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>-14.46765362</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>43.1361083984375</v>
       </c>
+      <c r="D12">
+        <f>VLOOKUP(A12,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>7.63153361</v>
+      </c>
+      <c r="E12">
+        <f>VLOOKUP(A12,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>-5.55561946</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C13">
         <v>41.163734436035199</v>
       </c>
+      <c r="D13">
+        <f>VLOOKUP(A13,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>16.01933683</v>
+      </c>
+      <c r="E13">
+        <f>VLOOKUP(A13,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>29.958036239999998</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>39.414909362792997</v>
       </c>
+      <c r="D14">
+        <f>VLOOKUP(A14,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>8.6332906499999993</v>
+      </c>
+      <c r="E14">
+        <f>VLOOKUP(A14,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>39.616175759999997</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <v>39.024684906005902</v>
       </c>
+      <c r="D15">
+        <f>VLOOKUP(A15,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>15.37320313</v>
+      </c>
+      <c r="E15">
+        <f>VLOOKUP(A15,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>38.841285730000003</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C16">
         <v>38.197307586669901</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="D16">
+        <f>VLOOKUP(A16,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>-1.9978920499999999</v>
+      </c>
+      <c r="E16">
+        <f>VLOOKUP(A16,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>29.91765225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C17">
         <v>37.060249328613303</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="D17">
+        <f>VLOOKUP(A17,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>-19.000098439999999</v>
+      </c>
+      <c r="E17">
+        <f>VLOOKUP(A17,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>29.871837769999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C18">
         <v>36.288028717041001</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="D18">
+        <f>VLOOKUP(A18,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>-22.133246239999998</v>
+      </c>
+      <c r="E18">
+        <f>VLOOKUP(A18,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>17.2182776</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C19">
         <v>34.930088043212898</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="D19">
+        <f>VLOOKUP(A19,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>-29.58100035</v>
+      </c>
+      <c r="E19">
+        <f>VLOOKUP(A19,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>28.24301127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C20">
         <v>32.831607818603501</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="D20">
+        <f>VLOOKUP(A20,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>1.2799634499999999</v>
+      </c>
+      <c r="E20">
+        <f>VLOOKUP(A20,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>32.386218270000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C21">
         <v>32.263469696044901</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="D21">
+        <f>VLOOKUP(A21,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>6.0637237400000004</v>
+      </c>
+      <c r="E21">
+        <f>VLOOKUP(A21,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>45.862590419999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C22">
         <v>31.562685012817401</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="D22">
+        <f>VLOOKUP(A22,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>13.452649429999999</v>
+      </c>
+      <c r="E22">
+        <f>VLOOKUP(A22,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>-15.38664312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C23">
         <v>27.763301849365199</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="D23">
+        <f>VLOOKUP(A23,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>-0.59094447999999999</v>
+      </c>
+      <c r="E23">
+        <f>VLOOKUP(A23,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>11.797236420000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -979,63 +1237,111 @@
       <c r="C24">
         <v>26.382898330688501</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="D24">
+        <f>VLOOKUP(A24,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>-22.182004079999999</v>
+      </c>
+      <c r="E24">
+        <f>VLOOKUP(A24,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>23.815027619999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
         <v>13</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
       </c>
       <c r="C25">
         <v>24.975612640380898</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="D25">
+        <f>VLOOKUP(A25,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>5.6859522</v>
+      </c>
+      <c r="E25">
+        <f>VLOOKUP(A25,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>12.743594160000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C26">
         <v>24.576908111572301</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="D26">
+        <f>VLOOKUP(A26,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>9.5939599900000001</v>
+      </c>
+      <c r="E26">
+        <f>VLOOKUP(A26,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>8.1053063099999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C27">
         <v>23.957883834838899</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="D27">
+        <f>VLOOKUP(A27,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>8.5349604499999998</v>
+      </c>
+      <c r="E27">
+        <f>VLOOKUP(A27,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>0.97572168000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C28">
         <v>21.952846527099599</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="D28">
+        <f>VLOOKUP(A28,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>-6.2703535099999996</v>
+      </c>
+      <c r="E28">
+        <f>VLOOKUP(A28,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>34.82345394</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C29">
         <v>19.307596206665</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="D29">
+        <f>VLOOKUP(A29,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>10.43821189</v>
+      </c>
+      <c r="E29">
+        <f>VLOOKUP(A29,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>-10.94177206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1045,85 +1351,149 @@
       <c r="C30">
         <v>18.196510314941399</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="D30">
+        <f>VLOOKUP(A30,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>9.6473208800000005</v>
+      </c>
+      <c r="E30">
+        <f>VLOOKUP(A30,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>2.34313576</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C31">
         <v>16.4873046875</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="D31">
+        <f>VLOOKUP(A31,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>17.350279189999998</v>
+      </c>
+      <c r="E31">
+        <f>VLOOKUP(A31,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>-3.5244225199999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C32">
         <v>15.1680898666382</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="D32">
+        <f>VLOOKUP(A32,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>12.030308290000001</v>
+      </c>
+      <c r="E32">
+        <f>VLOOKUP(A32,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>-14.965216590000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C33">
         <v>14.754021644592299</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="D33">
+        <f>VLOOKUP(A33,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>-0.84023157000000004</v>
+      </c>
+      <c r="E33">
+        <f>VLOOKUP(A33,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>15.22429344</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C34">
         <v>14.010825157165501</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="D34">
+        <f>VLOOKUP(A34,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>-13.45301862</v>
+      </c>
+      <c r="E34">
+        <f>VLOOKUP(A34,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>27.798249160000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C35">
         <v>13.4411478042603</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="D35">
+        <f>VLOOKUP(A35,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>17.426148959999999</v>
+      </c>
+      <c r="E35">
+        <f>VLOOKUP(A35,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>9.3976477599999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C36">
         <v>10.898485183715801</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="D36">
+        <f>VLOOKUP(A36,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>-19.373383069999999</v>
+      </c>
+      <c r="E36">
+        <f>VLOOKUP(A36,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>46.706038669999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C37">
         <v>8.3587713241577095</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="D37">
+        <f>VLOOKUP(A37,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>6.4480915300000001</v>
+      </c>
+      <c r="E37">
+        <f>VLOOKUP(A37,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>-9.3079138300000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -1133,41 +1503,73 @@
       <c r="C38">
         <v>7.3334450721740696</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="D38">
+        <f>VLOOKUP(A38,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>-12.29528522</v>
+      </c>
+      <c r="E38">
+        <f>VLOOKUP(A38,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>17.544675789999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C39">
         <v>6.6118803024292001</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="D39">
+        <f>VLOOKUP(A39,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>-13.21602165</v>
+      </c>
+      <c r="E39">
+        <f>VLOOKUP(A39,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>34.307155309999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C40">
         <v>5.5638475418090803</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="D40">
+        <f>VLOOKUP(A40,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>7.29576592</v>
+      </c>
+      <c r="E40">
+        <f>VLOOKUP(A40,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>30.315963579999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C41">
         <v>4.7740387916564897</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="D41">
+        <f>VLOOKUP(A41,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>8.5602848900000001</v>
+      </c>
+      <c r="E41">
+        <f>VLOOKUP(A41,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>-11.791921779999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -1177,19 +1579,35 @@
       <c r="C42">
         <v>4.7498755455017099</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="D42">
+        <f>VLOOKUP(A42,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>12.27792985</v>
+      </c>
+      <c r="E42">
+        <f>VLOOKUP(A42,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>-1.74014113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C43">
         <v>4.4686908721923801</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="D43">
+        <f>VLOOKUP(A43,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>-17.259323519999999</v>
+      </c>
+      <c r="E43">
+        <f>VLOOKUP(A43,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>35.551421920000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1199,60 +1617,108 @@
       <c r="C44">
         <v>3.4841194152832</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="D44">
+        <f>VLOOKUP(A44,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>-3.3561748100000002</v>
+      </c>
+      <c r="E44">
+        <f>VLOOKUP(A44,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>29.88714547</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C45">
         <v>2.5872542858123802</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="D45">
+        <f>VLOOKUP(A45,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>20.259851309999998</v>
+      </c>
+      <c r="E45">
+        <f>VLOOKUP(A45,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>-10.332297949999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
         <v>15</v>
-      </c>
-      <c r="B46" t="s">
-        <v>16</v>
       </c>
       <c r="C46">
         <v>2.2528667449951199</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="D46">
+        <f>VLOOKUP(A46,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>6.5712320799999997</v>
+      </c>
+      <c r="E46">
+        <f>VLOOKUP(A46,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>20.482966919999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" t="s">
         <v>17</v>
-      </c>
-      <c r="B47" t="s">
-        <v>18</v>
       </c>
       <c r="C47">
         <v>1.99430644512177</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="D47">
+        <f>VLOOKUP(A47,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>15.361166539999999</v>
+      </c>
+      <c r="E47">
+        <f>VLOOKUP(A47,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>18.664479709999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="D48">
+        <f>VLOOKUP(A48,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>-2.8762349600000001</v>
+      </c>
+      <c r="E48">
+        <f>VLOOKUP(A48,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>23.65500574</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C49">
         <v>0.93263000249862704</v>
+      </c>
+      <c r="D49">
+        <f>VLOOKUP(A49,Sheet2!$A$2:$C$64,3,FALSE)</f>
+        <v>1.7123385600000001</v>
+      </c>
+      <c r="E49">
+        <f>VLOOKUP(A49,Sheet2!$A$2:$D$64,2,FALSE)</f>
+        <v>10.34198228</v>
       </c>
     </row>
   </sheetData>
@@ -1261,4 +1727,727 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E43F5E3-F549-4E71-8CA3-8B4B18BDAF9B}">
+  <dimension ref="A1:C64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2">
+        <v>23.65500574</v>
+      </c>
+      <c r="C2">
+        <v>-2.8762349600000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>-14.965216590000001</v>
+      </c>
+      <c r="C3">
+        <v>12.030308290000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4">
+        <v>42.577765059999997</v>
+      </c>
+      <c r="C4">
+        <v>11.74967612</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>35.615359929999997</v>
+      </c>
+      <c r="C5">
+        <v>22.300097950000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6">
+        <v>57.870737349999999</v>
+      </c>
+      <c r="C6">
+        <v>-20.251869020000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7">
+        <v>6.7365857599999996</v>
+      </c>
+      <c r="C7">
+        <v>0.45697852999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8">
+        <v>9.5613358399999999</v>
+      </c>
+      <c r="C8">
+        <v>34.110858589999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>11.797236420000001</v>
+      </c>
+      <c r="C9">
+        <v>-0.59094447999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10">
+        <v>55.538179659999997</v>
+      </c>
+      <c r="C10">
+        <v>-21.12166049</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>20.482966919999999</v>
+      </c>
+      <c r="C11">
+        <v>6.5712320799999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12">
+        <v>29.871837769999999</v>
+      </c>
+      <c r="C12">
+        <v>-19.000098439999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13">
+        <v>17.2182776</v>
+      </c>
+      <c r="C13">
+        <v>-22.133246239999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14">
+        <v>45.138699930000001</v>
+      </c>
+      <c r="C14">
+        <v>-12.818710429999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>12.743594160000001</v>
+      </c>
+      <c r="C15">
+        <v>5.6859522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16">
+        <v>-13.13654066</v>
+      </c>
+      <c r="C16">
+        <v>24.66167128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17">
+        <v>29.790196510000001</v>
+      </c>
+      <c r="C17">
+        <v>26.553780459999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18">
+        <v>-5.55561946</v>
+      </c>
+      <c r="C18">
+        <v>7.63153361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19">
+        <v>-11.791921779999999</v>
+      </c>
+      <c r="C19">
+        <v>8.5602848900000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20">
+        <v>35.10895352</v>
+      </c>
+      <c r="C20">
+        <v>4.7649752799999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21">
+        <v>30.315963579999998</v>
+      </c>
+      <c r="C21">
+        <v>7.29576592</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22">
+        <v>45.862590419999997</v>
+      </c>
+      <c r="C22">
+        <v>6.0637237400000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23">
+        <v>52.229899400000001</v>
+      </c>
+      <c r="C23">
+        <v>-6.3543699800000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24">
+        <v>-14.46765362</v>
+      </c>
+      <c r="C24">
+        <v>14.36696575</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>2.34313576</v>
+      </c>
+      <c r="C25">
+        <v>9.6473208800000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26">
+        <v>29.958036239999998</v>
+      </c>
+      <c r="C26">
+        <v>16.01933683</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27">
+        <v>34.82345394</v>
+      </c>
+      <c r="C27">
+        <v>-6.2703535099999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28">
+        <v>33.743791080000001</v>
+      </c>
+      <c r="C28">
+        <v>21.892740180000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <v>10.34198228</v>
+      </c>
+      <c r="C29">
+        <v>1.7123385600000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30">
+        <v>9.3976477599999999</v>
+      </c>
+      <c r="C30">
+        <v>17.426148959999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31">
+        <v>-6.3178452299999996</v>
+      </c>
+      <c r="C31">
+        <v>31.883624950000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>-1.2073013800000001</v>
+      </c>
+      <c r="C32">
+        <v>7.9598484100000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>17.544675789999999</v>
+      </c>
+      <c r="C33">
+        <v>-12.29528522</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34">
+        <v>-9.3079138300000004</v>
+      </c>
+      <c r="C34">
+        <v>6.4480915300000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35">
+        <v>29.91765225</v>
+      </c>
+      <c r="C35">
+        <v>-1.9978920499999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36">
+        <v>35.551421920000003</v>
+      </c>
+      <c r="C36">
+        <v>-17.259323519999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37">
+        <v>47.290946949999999</v>
+      </c>
+      <c r="C37">
+        <v>-11.56622275</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38">
+        <v>39.616175759999997</v>
+      </c>
+      <c r="C38">
+        <v>8.6332906499999993</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39">
+        <v>43.675919659999998</v>
+      </c>
+      <c r="C39">
+        <v>-11.892754679999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40">
+        <v>28.398774620000001</v>
+      </c>
+      <c r="C40">
+        <v>9.7675845500000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41">
+        <v>34.307155309999999</v>
+      </c>
+      <c r="C41">
+        <v>-13.21602165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42">
+        <v>18.664479709999998</v>
+      </c>
+      <c r="C42">
+        <v>15.361166539999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43">
+        <v>-3.5244225199999999</v>
+      </c>
+      <c r="C43">
+        <v>17.350279189999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44">
+        <v>15.22429344</v>
+      </c>
+      <c r="C44">
+        <v>-0.84023157000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45">
+        <v>-10.94177206</v>
+      </c>
+      <c r="C45">
+        <v>10.43821189</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A46" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46">
+        <v>72.434026560000007</v>
+      </c>
+      <c r="C46">
+        <v>-7.3342664600000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47">
+        <v>8.1053063099999996</v>
+      </c>
+      <c r="C47">
+        <v>9.5939599900000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A48" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48">
+        <v>-15.38664312</v>
+      </c>
+      <c r="C48">
+        <v>13.452649429999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>23.815027619999999</v>
+      </c>
+      <c r="C49">
+        <v>-22.182004079999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <v>-1.74014113</v>
+      </c>
+      <c r="C50">
+        <v>12.27792985</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51">
+        <v>37.858020959999998</v>
+      </c>
+      <c r="C51">
+        <v>0.52956186000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A52" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52">
+        <v>-23.967784569999999</v>
+      </c>
+      <c r="C52">
+        <v>15.978973269999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A53" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53">
+        <v>27.798249160000001</v>
+      </c>
+      <c r="C53">
+        <v>-13.45301862</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A54" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54">
+        <v>32.386218270000001</v>
+      </c>
+      <c r="C54">
+        <v>1.2799634499999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55">
+        <v>38.841285730000003</v>
+      </c>
+      <c r="C55">
+        <v>15.37320313</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A56" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56">
+        <v>31.497528460000002</v>
+      </c>
+      <c r="C56">
+        <v>-26.562642189999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57">
+        <v>25.088778009999999</v>
+      </c>
+      <c r="C57">
+        <v>-28.99320329</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58">
+        <v>28.24301127</v>
+      </c>
+      <c r="C58">
+        <v>-29.58100035</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59">
+        <v>29.88714547</v>
+      </c>
+      <c r="C59">
+        <v>-3.3561748100000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A60" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60">
+        <v>46.706038669999998</v>
+      </c>
+      <c r="C60">
+        <v>-19.373383069999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A61" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61">
+        <v>-10.332297949999999</v>
+      </c>
+      <c r="C61">
+        <v>20.259851309999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A62" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62">
+        <v>2.63238817</v>
+      </c>
+      <c r="C62">
+        <v>28.163239269999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A63" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63">
+        <v>0.97572168000000004</v>
+      </c>
+      <c r="C63">
+        <v>8.5349604499999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A64" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64">
+        <v>18.023286550000002</v>
+      </c>
+      <c r="C64">
+        <v>27.043954190000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SSH Rural Access to Electricity 2020.xlsx
+++ b/SSH Rural Access to Electricity 2020.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ANITA\GITHUB\GATOTKACA\GATOTKACA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anita Rohmawati\A DATA SCIENCE &amp; ANALYTICS\GATOTKACA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F86E43-CD15-493D-9AB0-AF550B1A11EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAADDBA-9143-4997-B321-E3BC2F0BBF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" xr2:uid="{32318A95-E809-44D1-BCEE-4223C43B739D}"/>
   </bookViews>
@@ -781,7 +781,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>

--- a/SSH Rural Access to Electricity 2020.xlsx
+++ b/SSH Rural Access to Electricity 2020.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anita Rohmawati\A DATA SCIENCE &amp; ANALYTICS\GATOTKACA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ANITA\GITHUB\GATOTKACA\GATOTKACA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAADDBA-9143-4997-B321-E3BC2F0BBF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C76B14F-8958-4C56-8E91-FEE12DD310CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" xr2:uid="{32318A95-E809-44D1-BCEE-4223C43B739D}"/>
   </bookViews>
@@ -321,12 +321,6 @@
     <t>CountryCode</t>
   </si>
   <si>
-    <t>Lat</t>
-  </si>
-  <si>
-    <t>Lon</t>
-  </si>
-  <si>
     <t>Longitude</t>
   </si>
   <si>
@@ -394,6 +388,12 @@
   </si>
   <si>
     <t>Libyan Arab Jamahiriya</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lon</t>
   </si>
 </sst>
 </file>
@@ -781,7 +781,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -803,10 +803,10 @@
         <v>2020</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
@@ -849,7 +849,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s">
         <v>33</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B33" t="s">
         <v>21</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B48" t="s">
         <v>20</v>
@@ -1745,18 +1745,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B2">
         <v>23.65500574</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B4">
         <v>42.577765059999997</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5">
         <v>35.615359929999997</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B8">
         <v>9.5613358399999999</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B10">
         <v>55.538179659999997</v>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B14">
         <v>45.138699930000001</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B16">
         <v>-13.13654066</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B17">
         <v>29.790196510000001</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B18">
         <v>-5.55561946</v>
@@ -1954,7 +1954,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B20">
         <v>35.10895352</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B28">
         <v>33.743791080000001</v>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B31">
         <v>-6.3178452299999996</v>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B37">
         <v>47.290946949999999</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B40">
         <v>28.398774620000001</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B44">
         <v>15.22429344</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B46">
         <v>72.434026560000007</v>
@@ -2262,7 +2262,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B48">
         <v>-15.38664312</v>
@@ -2306,7 +2306,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B52">
         <v>-23.967784569999999</v>
@@ -2416,7 +2416,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B62">
         <v>2.63238817</v>
@@ -2438,7 +2438,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B64">
         <v>18.023286550000002</v>
